--- a/data/Map104.xlsx
+++ b/data/Map104.xlsx
@@ -29,7 +29,7 @@
     <t>主人公を選択してください。</t>
   </si>
   <si>
-    <t>Please choose a protagonist.</t>
+    <t>Please choose the protagonist.</t>
   </si>
   <si>
     <t>男主人公</t>

--- a/data/Map104.xlsx
+++ b/data/Map104.xlsx
@@ -29,7 +29,7 @@
     <t>主人公を選択してください。</t>
   </si>
   <si>
-    <t>Please choose the protagonist.</t>
+    <t>Please choose a protagonist.</t>
   </si>
   <si>
     <t>男主人公</t>

--- a/data/Map104.xlsx
+++ b/data/Map104.xlsx
@@ -53,7 +53,7 @@
     <t>アルス</t>
   </si>
   <si>
-    <t>Als</t>
+    <t>Alsto</t>
   </si>
   <si>
     <t>主人公の顔グラを表示しますか？

--- a/data/Map104.xlsx
+++ b/data/Map104.xlsx
@@ -47,7 +47,7 @@
     <t>ロメリア</t>
   </si>
   <si>
-    <t>Romeria</t>
+    <t>Meria</t>
   </si>
   <si>
     <t>アルス</t>

--- a/data/Map104.xlsx
+++ b/data/Map104.xlsx
@@ -438,7 +438,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,112 +446,115 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
